--- a/src/analysis_examples/circadb/results_jtk/cosinor_10510260_nppb_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10510260_nppb_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2490087022704615, 0.36912129776648067]</t>
+          <t>[0.24850479351874216, 0.3696252065182]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.827636151423121e-10</v>
+        <v>6.765754623216935e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>5.827636151423121e-10</v>
+        <v>6.765754623216935e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-0.9937370155499243</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3567311434706766, 0.42028089482551145]</t>
+          <t>[0.3567259403122634, 0.42028609798392463]</t>
         </is>
       </c>
       <c r="U2" t="n">
